--- a/day07/data/최종_서울_스타벅스매장_데이터.xlsx
+++ b/day07/data/최종_서울_스타벅스매장_데이터.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>주민등록인구</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>사업체수</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>종사자수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,6 +498,12 @@
       <c r="F2" t="n">
         <v>550282</v>
       </c>
+      <c r="G2" t="n">
+        <v>110007</v>
+      </c>
+      <c r="H2" t="n">
+        <v>801419</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,6 +528,12 @@
       <c r="F3" t="n">
         <v>463318</v>
       </c>
+      <c r="G3" t="n">
+        <v>41660</v>
+      </c>
+      <c r="H3" t="n">
+        <v>157465</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,6 +558,12 @@
       <c r="F4" t="n">
         <v>292977</v>
       </c>
+      <c r="G4" t="n">
+        <v>26385</v>
+      </c>
+      <c r="H4" t="n">
+        <v>80222</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,6 +588,12 @@
       <c r="F5" t="n">
         <v>568826</v>
       </c>
+      <c r="G5" t="n">
+        <v>58806</v>
+      </c>
+      <c r="H5" t="n">
+        <v>290473</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +618,12 @@
       <c r="F6" t="n">
         <v>497883</v>
       </c>
+      <c r="G6" t="n">
+        <v>37915</v>
+      </c>
+      <c r="H6" t="n">
+        <v>128417</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -608,6 +648,12 @@
       <c r="F7" t="n">
         <v>351180</v>
       </c>
+      <c r="G7" t="n">
+        <v>33706</v>
+      </c>
+      <c r="H7" t="n">
+        <v>129707</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -632,6 +678,12 @@
       <c r="F8" t="n">
         <v>415651</v>
       </c>
+      <c r="G8" t="n">
+        <v>52791</v>
+      </c>
+      <c r="H8" t="n">
+        <v>240689</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,6 +708,12 @@
       <c r="F9" t="n">
         <v>241105</v>
       </c>
+      <c r="G9" t="n">
+        <v>47964</v>
+      </c>
+      <c r="H9" t="n">
+        <v>255449</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -680,6 +738,12 @@
       <c r="F10" t="n">
         <v>502925</v>
       </c>
+      <c r="G10" t="n">
+        <v>37909</v>
+      </c>
+      <c r="H10" t="n">
+        <v>133398</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,6 +768,12 @@
       <c r="F11" t="n">
         <v>309494</v>
       </c>
+      <c r="G11" t="n">
+        <v>25391</v>
+      </c>
+      <c r="H11" t="n">
+        <v>79097</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -728,6 +798,12 @@
       <c r="F12" t="n">
         <v>359873</v>
       </c>
+      <c r="G12" t="n">
+        <v>42813</v>
+      </c>
+      <c r="H12" t="n">
+        <v>146383</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -752,6 +828,12 @@
       <c r="F13" t="n">
         <v>389714</v>
       </c>
+      <c r="G13" t="n">
+        <v>27915</v>
+      </c>
+      <c r="H13" t="n">
+        <v>109281</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -776,6 +858,12 @@
       <c r="F14" t="n">
         <v>375162</v>
       </c>
+      <c r="G14" t="n">
+        <v>56782</v>
+      </c>
+      <c r="H14" t="n">
+        <v>279788</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -800,6 +888,12 @@
       <c r="F15" t="n">
         <v>320629</v>
       </c>
+      <c r="G15" t="n">
+        <v>28522</v>
+      </c>
+      <c r="H15" t="n">
+        <v>118256</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -824,6 +918,12 @@
       <c r="F16" t="n">
         <v>412078</v>
       </c>
+      <c r="G16" t="n">
+        <v>71958</v>
+      </c>
+      <c r="H16" t="n">
+        <v>487976</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -848,6 +948,12 @@
       <c r="F17" t="n">
         <v>284766</v>
       </c>
+      <c r="G17" t="n">
+        <v>41665</v>
+      </c>
+      <c r="H17" t="n">
+        <v>203221</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -872,6 +978,12 @@
       <c r="F18" t="n">
         <v>438168</v>
       </c>
+      <c r="G18" t="n">
+        <v>34712</v>
+      </c>
+      <c r="H18" t="n">
+        <v>124004</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -896,6 +1008,12 @@
       <c r="F19" t="n">
         <v>660025</v>
       </c>
+      <c r="G19" t="n">
+        <v>74531</v>
+      </c>
+      <c r="H19" t="n">
+        <v>400781</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -920,6 +1038,12 @@
       <c r="F20" t="n">
         <v>439252</v>
       </c>
+      <c r="G20" t="n">
+        <v>37929</v>
+      </c>
+      <c r="H20" t="n">
+        <v>133776</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -944,6 +1068,12 @@
       <c r="F21" t="n">
         <v>397800</v>
       </c>
+      <c r="G21" t="n">
+        <v>74562</v>
+      </c>
+      <c r="H21" t="n">
+        <v>435017</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -968,6 +1098,12 @@
       <c r="F22" t="n">
         <v>227106</v>
       </c>
+      <c r="G22" t="n">
+        <v>29680</v>
+      </c>
+      <c r="H22" t="n">
+        <v>152605</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -992,6 +1128,12 @@
       <c r="F23" t="n">
         <v>470869</v>
       </c>
+      <c r="G23" t="n">
+        <v>36509</v>
+      </c>
+      <c r="H23" t="n">
+        <v>109031</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1016,6 +1158,12 @@
       <c r="F24" t="n">
         <v>150453</v>
       </c>
+      <c r="G24" t="n">
+        <v>48361</v>
+      </c>
+      <c r="H24" t="n">
+        <v>275063</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1040,6 +1188,12 @@
       <c r="F25" t="n">
         <v>131793</v>
       </c>
+      <c r="G25" t="n">
+        <v>70308</v>
+      </c>
+      <c r="H25" t="n">
+        <v>386564</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1063,6 +1217,12 @@
       </c>
       <c r="F26" t="n">
         <v>387470</v>
+      </c>
+      <c r="G26" t="n">
+        <v>39310</v>
+      </c>
+      <c r="H26" t="n">
+        <v>113144</v>
       </c>
     </row>
   </sheetData>
